--- a/Excel Books/Basic2.xlsx
+++ b/Excel Books/Basic2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>january</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>yamaha</t>
+  </si>
+  <si>
+    <t>Honda</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J13"/>
+  <dimension ref="B4:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +698,106 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
